--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_work\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D90B11D0-0B6C-4551-8154-244EAA810B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D0677-6F30-4C01-9C9F-DF8D8FE1017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,51 +78,9 @@
     <t>ФИО руководителя практики</t>
   </si>
   <si>
-    <t>Тип обучения</t>
-  </si>
-  <si>
-    <t>1. Бойко Кирилл Михайлович</t>
-  </si>
-  <si>
-    <t>2. Зорин Никита Евгеньевич</t>
-  </si>
-  <si>
-    <t>3. Иващенко Павел Сергеевич</t>
-  </si>
-  <si>
-    <t>4. Коннов Иван Максимович</t>
-  </si>
-  <si>
-    <t>5. Сальникова Юлия Александровна</t>
-  </si>
-  <si>
-    <t>6. Серебрякова Дарья Глебовна</t>
-  </si>
-  <si>
-    <t>7. Топорков Артем Андреевич</t>
-  </si>
-  <si>
-    <t>8. Упоров Егор Андреевич</t>
-  </si>
-  <si>
-    <t>9. Федотов Максим Евгеньевич</t>
-  </si>
-  <si>
-    <t>10. Шарапов Руслан Сиреневич</t>
-  </si>
-  <si>
-    <t>ИТси-210, к</t>
-  </si>
-  <si>
-    <t>ИТси-210, б</t>
-  </si>
-  <si>
     <t>ФИО студентов. Группа, форма обучения</t>
   </si>
   <si>
-    <t>заочное</t>
-  </si>
-  <si>
     <t>Дмитриев Н.В</t>
   </si>
   <si>
@@ -132,7 +90,49 @@
     <t>Кафедра</t>
   </si>
   <si>
-    <t xml:space="preserve">«Мехатроника» ФГБОУ ВО УрГУПС </t>
+    <t>Бойко Кирилл Михайлович</t>
+  </si>
+  <si>
+    <t>Зорин Никита Евгеньевич</t>
+  </si>
+  <si>
+    <t>Иващенко Павел Сергеевич</t>
+  </si>
+  <si>
+    <t>Коннов Иван Максимович</t>
+  </si>
+  <si>
+    <t>Сальникова Юлия Александровна</t>
+  </si>
+  <si>
+    <t>Серебрякова Дарья Глебовна</t>
+  </si>
+  <si>
+    <t>Топорков Артем Андреевич</t>
+  </si>
+  <si>
+    <t>Упоров Егор Андреевич</t>
+  </si>
+  <si>
+    <t>Шарапов Руслан Сиреневич</t>
+  </si>
+  <si>
+    <t>Федотов Максим Евгеньевич</t>
+  </si>
+  <si>
+    <t>к</t>
+  </si>
+  <si>
+    <t>б</t>
+  </si>
+  <si>
+    <t>«Мехатроника»</t>
+  </si>
+  <si>
+    <t>Форма обучения</t>
+  </si>
+  <si>
+    <t>заочная</t>
   </si>
 </sst>
 </file>
@@ -175,7 +175,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -195,6 +195,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -479,14 +482,14 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="42.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="128.42578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.140625" customWidth="1"/>
+    <col min="2" max="2" width="120.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="2.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
@@ -494,7 +497,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -536,10 +539,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -572,10 +575,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -593,100 +596,100 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>21</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
-      <c r="B14" s="2" t="s">
-        <v>19</v>
+      <c r="B14" s="8" t="s">
+        <v>22</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
-      <c r="B15" s="2" t="s">
-        <v>20</v>
+      <c r="B15" s="8" t="s">
+        <v>23</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
-      <c r="B16" s="2" t="s">
-        <v>21</v>
+      <c r="B16" s="8" t="s">
+        <v>24</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
-      <c r="B17" s="2" t="s">
-        <v>22</v>
+      <c r="B17" s="8" t="s">
+        <v>25</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
-      <c r="B18" s="2" t="s">
-        <v>23</v>
+      <c r="B18" s="8" t="s">
+        <v>26</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
-      <c r="B19" s="2" t="s">
-        <v>24</v>
+      <c r="B19" s="8" t="s">
+        <v>27</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="2" t="s">
-        <v>25</v>
+      <c r="B20" s="8" t="s">
+        <v>28</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
-      <c r="B21" s="2" t="s">
-        <v>26</v>
+      <c r="B21" s="8" t="s">
+        <v>30</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="2" t="s">
-        <v>27</v>
+      <c r="B22" s="8" t="s">
+        <v>29</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/training.xlsx
+++ b/training.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25330"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25427"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_work\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{479D0677-6F30-4C01-9C9F-DF8D8FE1017C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10074B5B-D8B4-48D5-9568-371DBAE9DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -78,9 +78,6 @@
     <t>ФИО руководителя практики</t>
   </si>
   <si>
-    <t>ФИО студентов. Группа, форма обучения</t>
-  </si>
-  <si>
     <t>Дмитриев Н.В</t>
   </si>
   <si>
@@ -133,6 +130,11 @@
   </si>
   <si>
     <t>заочная</t>
+  </si>
+  <si>
+    <t>Группа организаций.
+Имя организации.
+ФИО студентов, форма обучения</t>
   </si>
 </sst>
 </file>
@@ -482,7 +484,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -497,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -539,10 +541,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>34</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>35</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -575,10 +577,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -596,100 +598,100 @@
         <v>16</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>17</v>
+        <v>35</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_work\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10074B5B-D8B4-48D5-9568-371DBAE9DCDB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1954AFA-FEF5-4E64-ADB3-FEB81D3A6EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -72,9 +72,6 @@
     <t>Должность руководителя практики</t>
   </si>
   <si>
-    <t>ст. преподаватель</t>
-  </si>
-  <si>
     <t>ФИО руководителя практики</t>
   </si>
   <si>
@@ -135,6 +132,9 @@
     <t>Группа организаций.
 Имя организации.
 ФИО студентов, форма обучения</t>
+  </si>
+  <si>
+    <t>ст. преп.</t>
   </si>
 </sst>
 </file>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -499,7 +499,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C1" s="3"/>
     </row>
@@ -541,10 +541,10 @@
     </row>
     <row r="6" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" s="6" t="s">
         <v>33</v>
-      </c>
-      <c r="B6" s="6" t="s">
-        <v>34</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -577,10 +577,10 @@
     </row>
     <row r="10" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -588,110 +588,110 @@
       <c r="A11" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="B11" s="6" t="s">
-        <v>15</v>
+      <c r="B11" s="3" t="s">
+        <v>35</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="6" t="s">
         <v>16</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>17</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="3"/>
       <c r="B14" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="3"/>
       <c r="B15" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="3"/>
       <c r="B16" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="3"/>
       <c r="B17" s="8" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="3"/>
       <c r="B18" s="8" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
       <c r="B19" s="8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
       <c r="B20" s="8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="3"/>
       <c r="B21" s="8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
       <c r="B22" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="15.75" x14ac:dyDescent="0.25">

--- a/training.xlsx
+++ b/training.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\python_work\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1954AFA-FEF5-4E64-ADB3-FEB81D3A6EA5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{927A266D-4F0B-4776-B061-AEBD576FACC2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -484,7 +484,7 @@
   <dimension ref="A1:C23"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
